--- a/2023_prog_eval.xlsx
+++ b/2023_prog_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA3CF43-9149-4488-805C-FB3271F97F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5CE523-3012-4716-BF26-8508EA67F52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="AllPages (2)" sheetId="3" r:id="rId1"/>
     <sheet name="AllPages" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="117">
   <si>
     <t>CIP#</t>
   </si>
@@ -392,6 +403,9 @@
   </si>
   <si>
     <t>Source: 2023 SCTCS Program Evaluation</t>
+  </si>
+  <si>
+    <t>School Code</t>
   </si>
 </sst>
 </file>
@@ -579,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,58 +651,13 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,26 +672,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1213,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:P8"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1231,15 +1251,16 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="0.2" customHeight="1">
+    <row r="1" spans="1:17" ht="0.2" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1255,19 +1276,20 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="29.45" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="50"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="29.45" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
       <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="50"/>
+      <c r="D2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,35 +1303,38 @@
         <v>6</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="N2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="50"/>
-    </row>
-    <row r="3" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A3" s="41">
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A3" s="24">
         <v>15211</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="18">
         <v>6</v>
       </c>
@@ -1325,33 +1350,37 @@
       <c r="J3" s="18">
         <v>0</v>
       </c>
-      <c r="K3" s="18">
-        <v>0</v>
+      <c r="K3" s="20" t="str">
+        <f>IF(J3=0,"Professional School",IF(J3=1,"Developmental",IF(J3=2,"Career","")))</f>
+        <v>Professional School</v>
       </c>
       <c r="L3" s="18">
         <v>0</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24">
         <v>6</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="37">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-    </row>
-    <row r="4" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A4" s="41">
+      <c r="O3" s="25"/>
+      <c r="P3" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A4" s="24">
         <v>15214</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="18">
         <v>15</v>
       </c>
@@ -1367,33 +1396,37 @@
       <c r="J4" s="18">
         <v>0</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="20" t="str">
+        <f t="shared" ref="K4:K56" si="0">IF(J4=0,"Professional School",IF(J4=1,"Developmental",IF(J4=2,"Career","")))</f>
+        <v>Professional School</v>
+      </c>
+      <c r="L4" s="18">
         <v>3</v>
       </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="41">
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24">
         <v>14</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="40">
-        <v>1</v>
-      </c>
-      <c r="P4" s="38"/>
-    </row>
-    <row r="5" spans="1:16" ht="9.75" customHeight="1">
-      <c r="A5" s="41">
+      <c r="O4" s="25"/>
+      <c r="P4" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A5" s="24">
         <v>35002</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="18">
         <v>10</v>
       </c>
@@ -1409,33 +1442,37 @@
       <c r="J5" s="18">
         <v>1</v>
       </c>
-      <c r="K5" s="18">
-        <v>2</v>
+      <c r="K5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L5" s="18">
         <v>2</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="18">
+        <v>2</v>
+      </c>
+      <c r="N5" s="24">
         <v>7</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="40">
+      <c r="O5" s="25"/>
+      <c r="P5" s="30">
         <v>0.7</v>
       </c>
-      <c r="P5" s="38"/>
-    </row>
-    <row r="6" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A6" s="41">
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A6" s="24">
         <v>35007</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="18">
         <v>4</v>
       </c>
@@ -1451,33 +1488,37 @@
       <c r="J6" s="18">
         <v>0</v>
       </c>
-      <c r="K6" s="18">
-        <v>0</v>
+      <c r="K6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L6" s="18">
         <v>0</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
         <v>4</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40">
-        <v>1</v>
-      </c>
-      <c r="P6" s="38"/>
-    </row>
-    <row r="7" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="41">
+      <c r="O6" s="25"/>
+      <c r="P6" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A7" s="24">
         <v>35030</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="18">
         <v>21</v>
       </c>
@@ -1493,33 +1534,37 @@
       <c r="J7" s="18">
         <v>3</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" s="18">
         <v>4</v>
       </c>
-      <c r="L7" s="18">
+      <c r="M7" s="18">
         <v>9</v>
       </c>
-      <c r="M7" s="41">
+      <c r="N7" s="24">
         <v>12</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40">
+      <c r="O7" s="25"/>
+      <c r="P7" s="30">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P7" s="38"/>
-    </row>
-    <row r="8" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="41">
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="24">
         <v>35104</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="18">
         <v>21</v>
       </c>
@@ -1535,33 +1580,37 @@
       <c r="J8" s="18">
         <v>5</v>
       </c>
-      <c r="K8" s="18">
-        <v>1</v>
+      <c r="K8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="L8" s="18">
+        <v>1</v>
+      </c>
+      <c r="M8" s="18">
         <v>4</v>
       </c>
-      <c r="M8" s="41">
+      <c r="N8" s="24">
         <v>13</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="51">
+      <c r="O8" s="25"/>
+      <c r="P8" s="32">
         <v>0.62</v>
       </c>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="41">
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="24">
         <v>35208</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="18">
         <v>102</v>
       </c>
@@ -1577,33 +1626,37 @@
       <c r="J9" s="18">
         <v>1</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
+      </c>
+      <c r="L9" s="18">
         <v>18</v>
       </c>
-      <c r="L9" s="18">
-        <v>1</v>
-      </c>
-      <c r="M9" s="41">
+      <c r="M9" s="18">
+        <v>1</v>
+      </c>
+      <c r="N9" s="24">
         <v>100</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="41">
+      <c r="Q9" s="33"/>
+    </row>
+    <row r="10" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="24">
         <v>35307</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="18">
         <v>15</v>
       </c>
@@ -1619,33 +1672,37 @@
       <c r="J10" s="18">
         <v>0</v>
       </c>
-      <c r="K10" s="18">
-        <v>0</v>
+      <c r="K10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L10" s="18">
-        <v>1</v>
-      </c>
-      <c r="M10" s="41">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>1</v>
+      </c>
+      <c r="N10" s="24">
         <v>12</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="25"/>
+      <c r="P10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="41">
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="24">
         <v>35318</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="18">
         <v>30</v>
       </c>
@@ -1661,33 +1718,37 @@
       <c r="J11" s="18">
         <v>1</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
+      </c>
+      <c r="L11" s="18">
         <v>4</v>
       </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="41">
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
         <v>27</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="41">
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="24">
         <v>35408</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="18">
         <v>3</v>
       </c>
@@ -1703,33 +1764,37 @@
       <c r="J12" s="18">
         <v>0</v>
       </c>
-      <c r="K12" s="18">
-        <v>1</v>
+      <c r="K12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="41">
+        <v>1</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24">
         <v>3</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="25"/>
+      <c r="P12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="41">
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="24">
         <v>35426</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="18">
         <v>6</v>
       </c>
@@ -1745,33 +1810,37 @@
       <c r="J13" s="18">
         <v>1</v>
       </c>
-      <c r="K13" s="18">
-        <v>0</v>
+      <c r="K13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L13" s="18">
-        <v>1</v>
-      </c>
-      <c r="M13" s="41">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>1</v>
+      </c>
+      <c r="N13" s="24">
         <v>5</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="25"/>
+      <c r="P13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="41">
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A14" s="24">
         <v>35501</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="18">
         <v>20</v>
       </c>
@@ -1787,33 +1856,37 @@
       <c r="J14" s="18">
         <v>3</v>
       </c>
-      <c r="K14" s="18">
-        <v>2</v>
+      <c r="K14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="L14" s="18">
-        <v>1</v>
-      </c>
-      <c r="M14" s="41">
+        <v>2</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1</v>
+      </c>
+      <c r="N14" s="24">
         <v>17</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="25"/>
+      <c r="P14" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="41">
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A15" s="24">
         <v>35505</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="18">
         <v>5</v>
       </c>
@@ -1829,33 +1902,37 @@
       <c r="J15" s="18">
         <v>3</v>
       </c>
-      <c r="K15" s="18">
-        <v>0</v>
+      <c r="K15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="L15" s="18">
         <v>0</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="24">
         <v>5</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="25"/>
+      <c r="P15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="41">
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A16" s="24">
         <v>35508</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="18">
         <v>2</v>
       </c>
@@ -1871,33 +1948,37 @@
       <c r="J16" s="18">
         <v>0</v>
       </c>
-      <c r="K16" s="18">
-        <v>0</v>
+      <c r="K16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L16" s="18">
         <v>0</v>
       </c>
-      <c r="M16" s="41">
-        <v>2</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="22" t="s">
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <v>2</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="41">
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A17" s="24">
         <v>35520</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -1913,33 +1994,37 @@
       <c r="J17" s="18">
         <v>1</v>
       </c>
-      <c r="K17" s="18">
-        <v>2</v>
+      <c r="K17" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L17" s="18">
         <v>2</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="18">
+        <v>2</v>
+      </c>
+      <c r="N17" s="24">
         <v>7</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="22" t="s">
+      <c r="O17" s="25"/>
+      <c r="P17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="22"/>
-    </row>
-    <row r="18" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="41">
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="24">
         <v>45600</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="18">
         <v>87</v>
       </c>
@@ -1955,33 +2040,37 @@
       <c r="J18" s="18">
         <v>8</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L18" s="18">
         <v>44</v>
       </c>
-      <c r="L18" s="18">
+      <c r="M18" s="18">
         <v>4</v>
       </c>
-      <c r="M18" s="41">
+      <c r="N18" s="24">
         <v>83</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="25"/>
+      <c r="P18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="22"/>
-    </row>
-    <row r="19" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="41">
+      <c r="Q18" s="33"/>
+    </row>
+    <row r="19" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A19" s="24">
         <v>55600</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="18">
         <v>24</v>
       </c>
@@ -1997,33 +2086,37 @@
       <c r="J19" s="18">
         <v>5</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L19" s="18">
         <v>11</v>
       </c>
-      <c r="L19" s="18">
-        <v>2</v>
-      </c>
-      <c r="M19" s="41">
+      <c r="M19" s="18">
+        <v>2</v>
+      </c>
+      <c r="N19" s="24">
         <v>22</v>
       </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="22" t="s">
+      <c r="O19" s="25"/>
+      <c r="P19" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:16" ht="10.35" customHeight="1">
-      <c r="A20" s="41">
+      <c r="Q19" s="33"/>
+    </row>
+    <row r="20" spans="1:17" ht="10.35" customHeight="1">
+      <c r="A20" s="24">
         <v>60862</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="18">
         <v>0</v>
       </c>
@@ -2039,33 +2132,37 @@
       <c r="J20" s="18">
         <v>0</v>
       </c>
-      <c r="K20" s="18">
-        <v>0</v>
+      <c r="K20" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L20" s="18">
         <v>0</v>
       </c>
-      <c r="M20" s="41">
-        <v>0</v>
-      </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="22" t="s">
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20" s="24">
+        <v>0</v>
+      </c>
+      <c r="O20" s="25"/>
+      <c r="P20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A21" s="41">
+      <c r="Q20" s="33"/>
+    </row>
+    <row r="21" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A21" s="24">
         <v>60944</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="18">
         <v>5</v>
       </c>
@@ -2081,33 +2178,37 @@
       <c r="J21" s="18">
         <v>1</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
+      </c>
+      <c r="L21" s="18">
         <v>3</v>
       </c>
-      <c r="L21" s="18">
-        <v>0</v>
-      </c>
-      <c r="M21" s="41">
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="24">
         <v>5</v>
       </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="25"/>
+      <c r="P21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="22"/>
-    </row>
-    <row r="22" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A22" s="41">
+      <c r="Q21" s="33"/>
+    </row>
+    <row r="22" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A22" s="24">
         <v>60945</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="44"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="18">
         <v>6</v>
       </c>
@@ -2123,33 +2224,37 @@
       <c r="J22" s="18">
         <v>0</v>
       </c>
-      <c r="K22" s="18">
-        <v>2</v>
+      <c r="K22" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L22" s="18">
-        <v>0</v>
-      </c>
-      <c r="M22" s="41">
+        <v>2</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="24">
         <v>6</v>
       </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="25"/>
+      <c r="P22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="22"/>
-    </row>
-    <row r="23" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A23" s="41">
+      <c r="Q22" s="33"/>
+    </row>
+    <row r="23" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A23" s="24">
         <v>61023</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="18">
         <v>4</v>
       </c>
@@ -2165,33 +2270,37 @@
       <c r="J23" s="18">
         <v>0</v>
       </c>
-      <c r="K23" s="18">
-        <v>1</v>
+      <c r="K23" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L23" s="18">
-        <v>0</v>
-      </c>
-      <c r="M23" s="41">
+        <v>1</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23" s="24">
         <v>4</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="25"/>
+      <c r="P23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A24" s="41">
+      <c r="Q23" s="33"/>
+    </row>
+    <row r="24" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A24" s="24">
         <v>61037</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="44"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="18">
         <v>1</v>
       </c>
@@ -2207,33 +2316,37 @@
       <c r="J24" s="18">
         <v>1</v>
       </c>
-      <c r="K24" s="18">
-        <v>0</v>
+      <c r="K24" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L24" s="18">
         <v>0</v>
       </c>
-      <c r="M24" s="41">
-        <v>1</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="22" t="s">
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24" s="24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="P24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="22"/>
-    </row>
-    <row r="25" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A25" s="41">
+      <c r="Q24" s="33"/>
+    </row>
+    <row r="25" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A25" s="24">
         <v>61043</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="18">
         <v>7</v>
       </c>
@@ -2249,33 +2362,37 @@
       <c r="J25" s="18">
         <v>0</v>
       </c>
-      <c r="K25" s="18">
-        <v>2</v>
+      <c r="K25" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L25" s="18">
-        <v>0</v>
-      </c>
-      <c r="M25" s="41">
+        <v>2</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25" s="24">
         <v>7</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="22" t="s">
+      <c r="O25" s="25"/>
+      <c r="P25" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A26" s="41">
+      <c r="Q25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A26" s="24">
         <v>61184</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="18">
         <v>16</v>
       </c>
@@ -2291,33 +2408,37 @@
       <c r="J26" s="18">
         <v>1</v>
       </c>
-      <c r="K26" s="18">
-        <v>1</v>
+      <c r="K26" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L26" s="18">
-        <v>0</v>
-      </c>
-      <c r="M26" s="41">
+        <v>1</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26" s="24">
         <v>12</v>
       </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="25"/>
+      <c r="P26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A27" s="41">
+      <c r="Q26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A27" s="24">
         <v>61199</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="44"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="18">
         <v>6</v>
       </c>
@@ -2333,33 +2454,37 @@
       <c r="J27" s="18">
         <v>1</v>
       </c>
-      <c r="K27" s="18">
-        <v>0</v>
+      <c r="K27" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L27" s="18">
         <v>0</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="24">
         <v>6</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="25"/>
+      <c r="P27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A28" s="41">
+      <c r="Q27" s="33"/>
+    </row>
+    <row r="28" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A28" s="24">
         <v>61200</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="18">
         <v>11</v>
       </c>
@@ -2375,33 +2500,37 @@
       <c r="J28" s="18">
         <v>5</v>
       </c>
-      <c r="K28" s="18">
-        <v>1</v>
+      <c r="K28" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="L28" s="18">
-        <v>0</v>
-      </c>
-      <c r="M28" s="41">
+        <v>1</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="24">
         <v>11</v>
       </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="25"/>
+      <c r="P28" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A29" s="41">
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A29" s="24">
         <v>61231</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="18">
         <v>3</v>
       </c>
@@ -2417,33 +2546,37 @@
       <c r="J29" s="18">
         <v>1</v>
       </c>
-      <c r="K29" s="18">
-        <v>0</v>
+      <c r="K29" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L29" s="18">
         <v>0</v>
       </c>
-      <c r="M29" s="41">
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="24">
         <v>3</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="22" t="s">
+      <c r="O29" s="25"/>
+      <c r="P29" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="22"/>
-    </row>
-    <row r="30" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A30" s="41">
+      <c r="Q29" s="33"/>
+    </row>
+    <row r="30" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A30" s="24">
         <v>70191</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="18">
         <v>4</v>
       </c>
@@ -2459,33 +2592,37 @@
       <c r="J30" s="18">
         <v>0</v>
       </c>
-      <c r="K30" s="18">
-        <v>1</v>
+      <c r="K30" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L30" s="18">
-        <v>0</v>
-      </c>
-      <c r="M30" s="41">
+        <v>1</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="24">
         <v>4</v>
       </c>
-      <c r="N30" s="42"/>
-      <c r="O30" s="22" t="s">
+      <c r="O30" s="25"/>
+      <c r="P30" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A31" s="41">
+      <c r="Q30" s="33"/>
+    </row>
+    <row r="31" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A31" s="24">
         <v>70261</v>
       </c>
-      <c r="B31" s="42"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="18">
         <v>3</v>
       </c>
@@ -2501,33 +2638,37 @@
       <c r="J31" s="18">
         <v>0</v>
       </c>
-      <c r="K31" s="18">
-        <v>0</v>
+      <c r="K31" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L31" s="18">
-        <v>1</v>
-      </c>
-      <c r="M31" s="41">
-        <v>2</v>
-      </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1</v>
+      </c>
+      <c r="N31" s="24">
+        <v>2</v>
+      </c>
+      <c r="O31" s="25"/>
+      <c r="P31" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="P31" s="22"/>
-    </row>
-    <row r="32" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A32" s="41">
+      <c r="Q31" s="33"/>
+    </row>
+    <row r="32" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A32" s="24">
         <v>70808</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="44"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="18">
         <v>7</v>
       </c>
@@ -2543,33 +2684,37 @@
       <c r="J32" s="18">
         <v>2</v>
       </c>
-      <c r="K32" s="18">
-        <v>0</v>
+      <c r="K32" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Career</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
       </c>
-      <c r="M32" s="41">
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="24">
         <v>7</v>
       </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="22" t="s">
+      <c r="O32" s="25"/>
+      <c r="P32" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="22"/>
-    </row>
-    <row r="33" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A33" s="41">
+      <c r="Q32" s="33"/>
+    </row>
+    <row r="33" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A33" s="24">
         <v>70810</v>
       </c>
-      <c r="B33" s="42"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="44"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="18">
         <v>24</v>
       </c>
@@ -2585,33 +2730,37 @@
       <c r="J33" s="18">
         <v>0</v>
       </c>
-      <c r="K33" s="18">
-        <v>2</v>
+      <c r="K33" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L33" s="18">
         <v>2</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="18">
+        <v>2</v>
+      </c>
+      <c r="N33" s="24">
         <v>22</v>
       </c>
-      <c r="N33" s="42"/>
-      <c r="O33" s="22" t="s">
+      <c r="O33" s="25"/>
+      <c r="P33" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P33" s="22"/>
-    </row>
-    <row r="34" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A34" s="41">
+      <c r="Q33" s="33"/>
+    </row>
+    <row r="34" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A34" s="24">
         <v>70816</v>
       </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="44"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="18">
         <v>10</v>
       </c>
@@ -2627,33 +2776,37 @@
       <c r="J34" s="18">
         <v>4</v>
       </c>
-      <c r="K34" s="18">
-        <v>1</v>
+      <c r="K34" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="L34" s="18">
         <v>1</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="18">
+        <v>1</v>
+      </c>
+      <c r="N34" s="24">
         <v>7</v>
       </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="22" t="s">
+      <c r="O34" s="25"/>
+      <c r="P34" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="22"/>
-    </row>
-    <row r="35" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A35" s="41">
+      <c r="Q34" s="33"/>
+    </row>
+    <row r="35" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A35" s="24">
         <v>70847</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="44"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="18">
         <v>12</v>
       </c>
@@ -2669,33 +2822,37 @@
       <c r="J35" s="18">
         <v>1</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
+      </c>
+      <c r="L35" s="18">
         <v>3</v>
       </c>
-      <c r="L35" s="18">
-        <v>1</v>
-      </c>
-      <c r="M35" s="41">
+      <c r="M35" s="18">
+        <v>1</v>
+      </c>
+      <c r="N35" s="24">
         <v>11</v>
       </c>
-      <c r="N35" s="42"/>
-      <c r="O35" s="22" t="s">
+      <c r="O35" s="25"/>
+      <c r="P35" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P35" s="22"/>
-    </row>
-    <row r="36" spans="1:16" ht="8.85" customHeight="1">
-      <c r="A36" s="41">
+      <c r="Q35" s="33"/>
+    </row>
+    <row r="36" spans="1:17" ht="8.85" customHeight="1">
+      <c r="A36" s="24">
         <v>70970</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="44"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="18">
         <v>10</v>
       </c>
@@ -2711,33 +2868,37 @@
       <c r="J36" s="18">
         <v>1</v>
       </c>
-      <c r="K36" s="18">
-        <v>1</v>
+      <c r="K36" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L36" s="18">
         <v>1</v>
       </c>
-      <c r="M36" s="41">
+      <c r="M36" s="18">
+        <v>1</v>
+      </c>
+      <c r="N36" s="24">
         <v>8</v>
       </c>
-      <c r="N36" s="42"/>
-      <c r="O36" s="22" t="s">
+      <c r="O36" s="25"/>
+      <c r="P36" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="P36" s="22"/>
-    </row>
-    <row r="37" spans="1:16" ht="9.9499999999999993" customHeight="1">
-      <c r="A37" s="41">
+      <c r="Q36" s="33"/>
+    </row>
+    <row r="37" spans="1:17" ht="9.9499999999999993" customHeight="1">
+      <c r="A37" s="24">
         <v>71088</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="44"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="18">
         <v>10</v>
       </c>
@@ -2753,33 +2914,37 @@
       <c r="J37" s="18">
         <v>0</v>
       </c>
-      <c r="K37" s="18">
-        <v>1</v>
+      <c r="K37" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L37" s="18">
-        <v>0</v>
-      </c>
-      <c r="M37" s="41">
+        <v>1</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="24">
         <v>7</v>
       </c>
-      <c r="N37" s="42"/>
-      <c r="O37" s="22" t="s">
+      <c r="O37" s="25"/>
+      <c r="P37" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P37" s="22"/>
-    </row>
-    <row r="38" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A38" s="41">
+      <c r="Q37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A38" s="24">
         <v>71158</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="18">
         <v>2</v>
       </c>
@@ -2795,33 +2960,37 @@
       <c r="J38" s="18">
         <v>0</v>
       </c>
-      <c r="K38" s="18">
-        <v>1</v>
+      <c r="K38" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="41">
-        <v>2</v>
-      </c>
-      <c r="N38" s="42"/>
-      <c r="O38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="18">
+        <v>0</v>
+      </c>
+      <c r="N38" s="24">
+        <v>2</v>
+      </c>
+      <c r="O38" s="25"/>
+      <c r="P38" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P38" s="22"/>
-    </row>
-    <row r="39" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A39" s="41">
+      <c r="Q38" s="33"/>
+    </row>
+    <row r="39" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A39" s="24">
         <v>71159</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="44"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="18">
         <v>4</v>
       </c>
@@ -2837,33 +3006,37 @@
       <c r="J39" s="18">
         <v>0</v>
       </c>
-      <c r="K39" s="18">
-        <v>0</v>
+      <c r="K39" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L39" s="18">
         <v>0</v>
       </c>
-      <c r="M39" s="41">
+      <c r="M39" s="18">
+        <v>0</v>
+      </c>
+      <c r="N39" s="24">
         <v>4</v>
       </c>
-      <c r="N39" s="42"/>
-      <c r="O39" s="22" t="s">
+      <c r="O39" s="25"/>
+      <c r="P39" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P39" s="22"/>
-    </row>
-    <row r="40" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A40" s="41">
+      <c r="Q39" s="33"/>
+    </row>
+    <row r="40" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A40" s="24">
         <v>71165</v>
       </c>
-      <c r="B40" s="42"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="44"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="18">
         <v>28</v>
       </c>
@@ -2879,33 +3052,37 @@
       <c r="J40" s="18">
         <v>2</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Career</v>
+      </c>
+      <c r="L40" s="18">
         <v>6</v>
       </c>
-      <c r="L40" s="18">
-        <v>0</v>
-      </c>
-      <c r="M40" s="41">
+      <c r="M40" s="18">
+        <v>0</v>
+      </c>
+      <c r="N40" s="24">
         <v>28</v>
       </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="22" t="s">
+      <c r="O40" s="25"/>
+      <c r="P40" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P40" s="22"/>
-    </row>
-    <row r="41" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A41" s="41">
+      <c r="Q40" s="33"/>
+    </row>
+    <row r="41" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A41" s="24">
         <v>71166</v>
       </c>
-      <c r="B41" s="42"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="44"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="18">
         <v>12</v>
       </c>
@@ -2921,33 +3098,37 @@
       <c r="J41" s="18">
         <v>0</v>
       </c>
-      <c r="K41" s="18">
-        <v>2</v>
+      <c r="K41" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L41" s="18">
-        <v>0</v>
-      </c>
-      <c r="M41" s="41">
+        <v>2</v>
+      </c>
+      <c r="M41" s="18">
+        <v>0</v>
+      </c>
+      <c r="N41" s="24">
         <v>12</v>
       </c>
-      <c r="N41" s="42"/>
-      <c r="O41" s="22" t="s">
+      <c r="O41" s="25"/>
+      <c r="P41" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P41" s="22"/>
-    </row>
-    <row r="42" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A42" s="41">
+      <c r="Q41" s="33"/>
+    </row>
+    <row r="42" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A42" s="24">
         <v>71168</v>
       </c>
-      <c r="B42" s="42"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="44"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="18">
         <v>12</v>
       </c>
@@ -2963,33 +3144,37 @@
       <c r="J42" s="18">
         <v>0</v>
       </c>
-      <c r="K42" s="18">
-        <v>1</v>
+      <c r="K42" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L42" s="18">
         <v>1</v>
       </c>
-      <c r="M42" s="41">
+      <c r="M42" s="18">
+        <v>1</v>
+      </c>
+      <c r="N42" s="24">
         <v>11</v>
       </c>
-      <c r="N42" s="42"/>
-      <c r="O42" s="22" t="s">
+      <c r="O42" s="25"/>
+      <c r="P42" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P42" s="22"/>
-    </row>
-    <row r="43" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A43" s="41">
+      <c r="Q42" s="33"/>
+    </row>
+    <row r="43" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A43" s="24">
         <v>71180</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="44"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="18">
         <v>12</v>
       </c>
@@ -3005,33 +3190,37 @@
       <c r="J43" s="18">
         <v>1</v>
       </c>
-      <c r="K43" s="18">
-        <v>2</v>
+      <c r="K43" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L43" s="18">
-        <v>0</v>
-      </c>
-      <c r="M43" s="41">
+        <v>2</v>
+      </c>
+      <c r="M43" s="18">
+        <v>0</v>
+      </c>
+      <c r="N43" s="24">
         <v>10</v>
       </c>
-      <c r="N43" s="42"/>
-      <c r="O43" s="22" t="s">
+      <c r="O43" s="25"/>
+      <c r="P43" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="P43" s="22"/>
-    </row>
-    <row r="44" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A44" s="41">
+      <c r="Q43" s="33"/>
+    </row>
+    <row r="44" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A44" s="24">
         <v>71181</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="44"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="18">
         <v>10</v>
       </c>
@@ -3047,33 +3236,37 @@
       <c r="J44" s="18">
         <v>1</v>
       </c>
-      <c r="K44" s="18">
-        <v>1</v>
+      <c r="K44" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L44" s="18">
-        <v>0</v>
-      </c>
-      <c r="M44" s="41">
+        <v>1</v>
+      </c>
+      <c r="M44" s="18">
+        <v>0</v>
+      </c>
+      <c r="N44" s="24">
         <v>7</v>
       </c>
-      <c r="N44" s="42"/>
-      <c r="O44" s="22" t="s">
+      <c r="O44" s="25"/>
+      <c r="P44" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="P44" s="22"/>
-    </row>
-    <row r="45" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A45" s="41">
+      <c r="Q44" s="33"/>
+    </row>
+    <row r="45" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A45" s="24">
         <v>71237</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="44"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="18">
         <v>6</v>
       </c>
@@ -3089,33 +3282,37 @@
       <c r="J45" s="18">
         <v>0</v>
       </c>
-      <c r="K45" s="18">
-        <v>1</v>
+      <c r="K45" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L45" s="18">
-        <v>0</v>
-      </c>
-      <c r="M45" s="41">
+        <v>1</v>
+      </c>
+      <c r="M45" s="18">
+        <v>0</v>
+      </c>
+      <c r="N45" s="24">
         <v>5</v>
       </c>
-      <c r="N45" s="42"/>
-      <c r="O45" s="22" t="s">
+      <c r="O45" s="25"/>
+      <c r="P45" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P45" s="22"/>
-    </row>
-    <row r="46" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A46" s="41">
+      <c r="Q45" s="33"/>
+    </row>
+    <row r="46" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A46" s="24">
         <v>71238</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="44"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="18">
         <v>5</v>
       </c>
@@ -3131,33 +3328,37 @@
       <c r="J46" s="18">
         <v>1</v>
       </c>
-      <c r="K46" s="18">
-        <v>0</v>
+      <c r="K46" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L46" s="18">
         <v>0</v>
       </c>
-      <c r="M46" s="41">
+      <c r="M46" s="18">
+        <v>0</v>
+      </c>
+      <c r="N46" s="24">
         <v>4</v>
       </c>
-      <c r="N46" s="42"/>
-      <c r="O46" s="22" t="s">
+      <c r="O46" s="25"/>
+      <c r="P46" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P46" s="22"/>
-    </row>
-    <row r="47" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A47" s="41">
+      <c r="Q46" s="33"/>
+    </row>
+    <row r="47" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A47" s="24">
         <v>71306</v>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="44"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="18">
         <v>1</v>
       </c>
@@ -3173,33 +3374,37 @@
       <c r="J47" s="18">
         <v>1</v>
       </c>
-      <c r="K47" s="18">
-        <v>0</v>
+      <c r="K47" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L47" s="18">
         <v>0</v>
       </c>
-      <c r="M47" s="41">
-        <v>1</v>
-      </c>
-      <c r="N47" s="42"/>
-      <c r="O47" s="22" t="s">
+      <c r="M47" s="18">
+        <v>0</v>
+      </c>
+      <c r="N47" s="24">
+        <v>1</v>
+      </c>
+      <c r="O47" s="25"/>
+      <c r="P47" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="22"/>
-    </row>
-    <row r="48" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A48" s="41">
+      <c r="Q47" s="33"/>
+    </row>
+    <row r="48" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A48" s="24">
         <v>71327</v>
       </c>
-      <c r="B48" s="42"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="44"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="18">
         <v>0</v>
       </c>
@@ -3215,33 +3420,37 @@
       <c r="J48" s="18">
         <v>0</v>
       </c>
-      <c r="K48" s="18">
-        <v>0</v>
+      <c r="K48" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L48" s="18">
         <v>0</v>
       </c>
-      <c r="M48" s="41">
-        <v>0</v>
-      </c>
-      <c r="N48" s="42"/>
-      <c r="O48" s="22" t="s">
+      <c r="M48" s="18">
+        <v>0</v>
+      </c>
+      <c r="N48" s="24">
+        <v>0</v>
+      </c>
+      <c r="O48" s="25"/>
+      <c r="P48" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P48" s="22"/>
-    </row>
-    <row r="49" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A49" s="41">
+      <c r="Q48" s="33"/>
+    </row>
+    <row r="49" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A49" s="24">
         <v>71328</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="44"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="18">
         <v>4</v>
       </c>
@@ -3257,33 +3466,37 @@
       <c r="J49" s="18">
         <v>3</v>
       </c>
-      <c r="K49" s="18">
-        <v>0</v>
+      <c r="K49" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="L49" s="18">
         <v>0</v>
       </c>
-      <c r="M49" s="41">
+      <c r="M49" s="18">
+        <v>0</v>
+      </c>
+      <c r="N49" s="24">
         <v>4</v>
       </c>
-      <c r="N49" s="42"/>
-      <c r="O49" s="22" t="s">
+      <c r="O49" s="25"/>
+      <c r="P49" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P49" s="22"/>
-    </row>
-    <row r="50" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A50" s="41">
+      <c r="Q49" s="33"/>
+    </row>
+    <row r="50" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A50" s="24">
         <v>71350</v>
       </c>
-      <c r="B50" s="42"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="44"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="18">
         <v>2</v>
       </c>
@@ -3299,33 +3512,37 @@
       <c r="J50" s="18">
         <v>0</v>
       </c>
-      <c r="K50" s="18">
-        <v>0</v>
+      <c r="K50" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L50" s="18">
         <v>0</v>
       </c>
-      <c r="M50" s="41">
-        <v>0</v>
-      </c>
-      <c r="N50" s="42"/>
-      <c r="O50" s="22" t="s">
+      <c r="M50" s="18">
+        <v>0</v>
+      </c>
+      <c r="N50" s="24">
+        <v>0</v>
+      </c>
+      <c r="O50" s="25"/>
+      <c r="P50" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="P50" s="22"/>
-    </row>
-    <row r="51" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A51" s="41">
+      <c r="Q50" s="33"/>
+    </row>
+    <row r="51" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A51" s="24">
         <v>71351</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="44"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="18">
         <v>3</v>
       </c>
@@ -3341,33 +3558,37 @@
       <c r="J51" s="18">
         <v>0</v>
       </c>
-      <c r="K51" s="18">
-        <v>1</v>
+      <c r="K51" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L51" s="18">
-        <v>0</v>
-      </c>
-      <c r="M51" s="41">
+        <v>1</v>
+      </c>
+      <c r="M51" s="18">
+        <v>0</v>
+      </c>
+      <c r="N51" s="24">
         <v>3</v>
       </c>
-      <c r="N51" s="42"/>
-      <c r="O51" s="22" t="s">
+      <c r="O51" s="25"/>
+      <c r="P51" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P51" s="22"/>
-    </row>
-    <row r="52" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A52" s="41">
+      <c r="Q51" s="33"/>
+    </row>
+    <row r="52" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A52" s="24">
         <v>71396</v>
       </c>
-      <c r="B52" s="42"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="44"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="18">
         <v>3</v>
       </c>
@@ -3383,33 +3604,37 @@
       <c r="J52" s="18">
         <v>1</v>
       </c>
-      <c r="K52" s="18">
-        <v>0</v>
+      <c r="K52" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L52" s="18">
         <v>0</v>
       </c>
-      <c r="M52" s="41">
-        <v>2</v>
-      </c>
-      <c r="N52" s="42"/>
-      <c r="O52" s="22" t="s">
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
+      <c r="N52" s="24">
+        <v>2</v>
+      </c>
+      <c r="O52" s="25"/>
+      <c r="P52" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="P52" s="22"/>
-    </row>
-    <row r="53" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A53" s="41">
+      <c r="Q52" s="33"/>
+    </row>
+    <row r="53" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A53" s="24">
         <v>71431</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="18">
         <v>2</v>
       </c>
@@ -3425,33 +3650,37 @@
       <c r="J53" s="18">
         <v>0</v>
       </c>
-      <c r="K53" s="18">
-        <v>1</v>
+      <c r="K53" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L53" s="18">
-        <v>0</v>
-      </c>
-      <c r="M53" s="41">
-        <v>2</v>
-      </c>
-      <c r="N53" s="42"/>
-      <c r="O53" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0</v>
+      </c>
+      <c r="N53" s="24">
+        <v>2</v>
+      </c>
+      <c r="O53" s="25"/>
+      <c r="P53" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P53" s="22"/>
-    </row>
-    <row r="54" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A54" s="41">
+      <c r="Q53" s="33"/>
+    </row>
+    <row r="54" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A54" s="24">
         <v>71432</v>
       </c>
-      <c r="B54" s="42"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="44"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="18">
         <v>1</v>
       </c>
@@ -3467,33 +3696,37 @@
       <c r="J54" s="18">
         <v>0</v>
       </c>
-      <c r="K54" s="18">
-        <v>0</v>
+      <c r="K54" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Professional School</v>
       </c>
       <c r="L54" s="18">
         <v>0</v>
       </c>
-      <c r="M54" s="41">
-        <v>1</v>
-      </c>
-      <c r="N54" s="42"/>
-      <c r="O54" s="22" t="s">
+      <c r="M54" s="18">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24">
+        <v>1</v>
+      </c>
+      <c r="O54" s="25"/>
+      <c r="P54" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P54" s="22"/>
-    </row>
-    <row r="55" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A55" s="41">
+      <c r="Q54" s="33"/>
+    </row>
+    <row r="55" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A55" s="24">
         <v>71433</v>
       </c>
-      <c r="B55" s="42"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="44"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="18">
         <v>2</v>
       </c>
@@ -3509,33 +3742,37 @@
       <c r="J55" s="18">
         <v>1</v>
       </c>
-      <c r="K55" s="18">
-        <v>0</v>
+      <c r="K55" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Developmental</v>
       </c>
       <c r="L55" s="18">
         <v>0</v>
       </c>
-      <c r="M55" s="41">
-        <v>2</v>
-      </c>
-      <c r="N55" s="42"/>
-      <c r="O55" s="22" t="s">
+      <c r="M55" s="18">
+        <v>0</v>
+      </c>
+      <c r="N55" s="24">
+        <v>2</v>
+      </c>
+      <c r="O55" s="25"/>
+      <c r="P55" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P55" s="22"/>
-    </row>
-    <row r="56" spans="1:16" ht="9.6" customHeight="1">
-      <c r="A56" s="20">
+      <c r="Q55" s="33"/>
+    </row>
+    <row r="56" spans="1:17" ht="9.6" customHeight="1">
+      <c r="A56" s="34">
         <v>71452</v>
       </c>
-      <c r="B56" s="47"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="48"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="18">
         <v>7</v>
       </c>
@@ -3551,243 +3788,247 @@
       <c r="J56" s="18">
         <v>5</v>
       </c>
-      <c r="K56" s="18">
-        <v>1</v>
+      <c r="K56" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="L56" s="18">
-        <v>0</v>
-      </c>
-      <c r="M56" s="20">
+        <v>1</v>
+      </c>
+      <c r="M56" s="18">
+        <v>0</v>
+      </c>
+      <c r="N56" s="34">
         <v>7</v>
       </c>
-      <c r="N56" s="47"/>
-      <c r="O56" s="22" t="s">
+      <c r="O56" s="35"/>
+      <c r="P56" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P56" s="22"/>
+      <c r="Q56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="220">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3842,17 +4083,17 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="29.45" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24"/>
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="24"/>
+      <c r="D2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="40"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3874,24 +4115,24 @@
       <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="25"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="10.35" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3899,24 +4140,24 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A4" s="20">
+      <c r="A4" s="34">
         <v>15211</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="4">
         <v>6</v>
       </c>
@@ -3938,28 +4179,28 @@
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="34">
         <v>6</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="22" t="s">
+      <c r="N4" s="34"/>
+      <c r="O4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A5" s="20">
+      <c r="A5" s="34">
         <v>15214</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="4">
         <v>15</v>
       </c>
@@ -3981,24 +4222,24 @@
       <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="34">
         <v>14</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="10">
         <v>21</v>
       </c>
@@ -4020,22 +4261,22 @@
       <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="44">
         <v>20</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="36" t="s">
+      <c r="N6" s="44"/>
+      <c r="O6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="36"/>
+      <c r="P6" s="45"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="9.1999999999999993" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4043,22 +4284,22 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="29.1" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="24"/>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -4080,28 +4321,28 @@
       <c r="L8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25" t="s">
+      <c r="N8" s="40"/>
+      <c r="O8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="25"/>
+      <c r="P8" s="41"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A9" s="20">
+      <c r="A9" s="34">
         <v>35002</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="4">
         <v>10</v>
       </c>
@@ -4123,28 +4364,28 @@
       <c r="L9" s="4">
         <v>2</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="34">
         <v>7</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="22" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A10" s="20">
+      <c r="A10" s="34">
         <v>35007</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="4">
         <v>4</v>
       </c>
@@ -4166,28 +4407,28 @@
       <c r="L10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="34">
         <v>4</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="22" t="s">
+      <c r="N10" s="34"/>
+      <c r="O10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="20">
+      <c r="A11" s="34">
         <v>35030</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="4">
         <v>21</v>
       </c>
@@ -4209,28 +4450,28 @@
       <c r="L11" s="4">
         <v>9</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="34">
         <v>12</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="22" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="22"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="20">
+      <c r="A12" s="34">
         <v>35104</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="4">
         <v>21</v>
       </c>
@@ -4252,28 +4493,28 @@
       <c r="L12" s="4">
         <v>4</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="34">
         <v>13</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="22" t="s">
+      <c r="N12" s="34"/>
+      <c r="O12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="22"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="20">
+      <c r="A13" s="34">
         <v>35208</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="4">
         <v>102</v>
       </c>
@@ -4295,28 +4536,28 @@
       <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="34">
         <v>100</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="22" t="s">
+      <c r="N13" s="34"/>
+      <c r="O13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="22"/>
+      <c r="P13" s="33"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="20">
+      <c r="A14" s="34">
         <v>35307</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="4">
         <v>15</v>
       </c>
@@ -4338,28 +4579,28 @@
       <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="34">
         <v>12</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="22" t="s">
+      <c r="N14" s="34"/>
+      <c r="O14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="22"/>
+      <c r="P14" s="33"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="20">
+      <c r="A15" s="34">
         <v>35318</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="4">
         <v>30</v>
       </c>
@@ -4381,28 +4622,28 @@
       <c r="L15" s="4">
         <v>0</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="34">
         <v>27</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="22" t="s">
+      <c r="N15" s="34"/>
+      <c r="O15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="22"/>
+      <c r="P15" s="33"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="20">
+      <c r="A16" s="34">
         <v>35408</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="4">
         <v>3</v>
       </c>
@@ -4424,28 +4665,28 @@
       <c r="L16" s="4">
         <v>0</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="34">
         <v>3</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="22" t="s">
+      <c r="N16" s="34"/>
+      <c r="O16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="22"/>
+      <c r="P16" s="33"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="20">
+      <c r="A17" s="34">
         <v>35426</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="4">
         <v>6</v>
       </c>
@@ -4467,28 +4708,28 @@
       <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="34">
         <v>5</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="22" t="s">
+      <c r="N17" s="34"/>
+      <c r="O17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="22"/>
+      <c r="P17" s="33"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="20">
+      <c r="A18" s="34">
         <v>35501</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="4">
         <v>20</v>
       </c>
@@ -4510,28 +4751,28 @@
       <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="34">
         <v>17</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="22" t="s">
+      <c r="N18" s="34"/>
+      <c r="O18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="P18" s="22"/>
+      <c r="P18" s="33"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="20">
+      <c r="A19" s="34">
         <v>35505</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="4">
         <v>5</v>
       </c>
@@ -4553,28 +4794,28 @@
       <c r="L19" s="4">
         <v>0</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="34">
         <v>5</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="22" t="s">
+      <c r="N19" s="34"/>
+      <c r="O19" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="22"/>
+      <c r="P19" s="33"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A20" s="20">
+      <c r="A20" s="34">
         <v>35508</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="4">
         <v>2</v>
       </c>
@@ -4596,28 +4837,28 @@
       <c r="L20" s="4">
         <v>0</v>
       </c>
-      <c r="M20" s="20">
-        <v>2</v>
-      </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="22" t="s">
+      <c r="M20" s="34">
+        <v>2</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="22"/>
+      <c r="P20" s="33"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="20">
+      <c r="A21" s="34">
         <v>35520</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="4">
         <v>9</v>
       </c>
@@ -4639,28 +4880,28 @@
       <c r="L21" s="4">
         <v>2</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="34">
         <v>7</v>
       </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="22" t="s">
+      <c r="N21" s="34"/>
+      <c r="O21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="22"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="20">
+      <c r="A22" s="34">
         <v>45600</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="4">
         <v>87</v>
       </c>
@@ -4682,28 +4923,28 @@
       <c r="L22" s="4">
         <v>4</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="34">
         <v>83</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="22" t="s">
+      <c r="N22" s="34"/>
+      <c r="O22" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="22"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="20">
+      <c r="A23" s="34">
         <v>55600</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="4">
         <v>24</v>
       </c>
@@ -4725,24 +4966,24 @@
       <c r="L23" s="4">
         <v>2</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="34">
         <v>22</v>
       </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="22" t="s">
+      <c r="N23" s="34"/>
+      <c r="O23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="22"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="12">
         <v>359</v>
       </c>
@@ -4764,22 +5005,22 @@
       <c r="L24" s="12">
         <v>27</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24" s="46">
         <v>319</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="36" t="s">
+      <c r="N24" s="46"/>
+      <c r="O24" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="36"/>
+      <c r="P24" s="45"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -4787,22 +5028,22 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="30.2" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="24"/>
+      <c r="D26" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="40"/>
       <c r="F26" s="13" t="s">
         <v>3</v>
       </c>
@@ -4824,28 +5065,28 @@
       <c r="L26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="M26" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="25" t="s">
+      <c r="N26" s="47"/>
+      <c r="O26" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="41"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="10.35" customHeight="1">
-      <c r="A27" s="20">
+      <c r="A27" s="34">
         <v>60862</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="4">
         <v>0</v>
       </c>
@@ -4867,28 +5108,28 @@
       <c r="L27" s="4">
         <v>0</v>
       </c>
-      <c r="M27" s="20">
-        <v>0</v>
-      </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="22" t="s">
+      <c r="M27" s="34">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34"/>
+      <c r="O27" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="22"/>
+      <c r="P27" s="33"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A28" s="20">
+      <c r="A28" s="34">
         <v>60944</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="4">
         <v>5</v>
       </c>
@@ -4910,28 +5151,28 @@
       <c r="L28" s="4">
         <v>0</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="34">
         <v>5</v>
       </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="22" t="s">
+      <c r="N28" s="34"/>
+      <c r="O28" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="22"/>
+      <c r="P28" s="33"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A29" s="20">
+      <c r="A29" s="34">
         <v>60945</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="4">
         <v>6</v>
       </c>
@@ -4953,28 +5194,28 @@
       <c r="L29" s="4">
         <v>0</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="34">
         <v>6</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="22" t="s">
+      <c r="N29" s="34"/>
+      <c r="O29" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="22"/>
+      <c r="P29" s="33"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A30" s="20">
+      <c r="A30" s="34">
         <v>61023</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="4">
         <v>4</v>
       </c>
@@ -4996,28 +5237,28 @@
       <c r="L30" s="4">
         <v>0</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="34">
         <v>4</v>
       </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="22" t="s">
+      <c r="N30" s="34"/>
+      <c r="O30" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="22"/>
+      <c r="P30" s="33"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A31" s="20">
+      <c r="A31" s="34">
         <v>61037</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="4">
         <v>1</v>
       </c>
@@ -5039,28 +5280,28 @@
       <c r="L31" s="4">
         <v>0</v>
       </c>
-      <c r="M31" s="20">
-        <v>1</v>
-      </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="22" t="s">
+      <c r="M31" s="34">
+        <v>1</v>
+      </c>
+      <c r="N31" s="34"/>
+      <c r="O31" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="22"/>
+      <c r="P31" s="33"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A32" s="20">
+      <c r="A32" s="34">
         <v>61043</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="4">
         <v>7</v>
       </c>
@@ -5082,28 +5323,28 @@
       <c r="L32" s="4">
         <v>0</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="34">
         <v>7</v>
       </c>
-      <c r="N32" s="20"/>
-      <c r="O32" s="22" t="s">
+      <c r="N32" s="34"/>
+      <c r="O32" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="22"/>
+      <c r="P32" s="33"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A33" s="20">
+      <c r="A33" s="34">
         <v>61184</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="4">
         <v>16</v>
       </c>
@@ -5125,28 +5366,28 @@
       <c r="L33" s="4">
         <v>0</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="34">
         <v>12</v>
       </c>
-      <c r="N33" s="20"/>
-      <c r="O33" s="22" t="s">
+      <c r="N33" s="34"/>
+      <c r="O33" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="22"/>
+      <c r="P33" s="33"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A34" s="20">
+      <c r="A34" s="34">
         <v>61199</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="4">
         <v>6</v>
       </c>
@@ -5168,28 +5409,28 @@
       <c r="L34" s="4">
         <v>0</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="34">
         <v>6</v>
       </c>
-      <c r="N34" s="20"/>
-      <c r="O34" s="22" t="s">
+      <c r="N34" s="34"/>
+      <c r="O34" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="22"/>
+      <c r="P34" s="33"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A35" s="20">
+      <c r="A35" s="34">
         <v>61200</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="4">
         <v>11</v>
       </c>
@@ -5211,28 +5452,28 @@
       <c r="L35" s="4">
         <v>0</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="34">
         <v>11</v>
       </c>
-      <c r="N35" s="20"/>
-      <c r="O35" s="22" t="s">
+      <c r="N35" s="34"/>
+      <c r="O35" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P35" s="22"/>
+      <c r="P35" s="33"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A36" s="20">
+      <c r="A36" s="34">
         <v>61231</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="21"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="4">
         <v>3</v>
       </c>
@@ -5254,28 +5495,28 @@
       <c r="L36" s="4">
         <v>0</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="34">
         <v>3</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="22" t="s">
+      <c r="N36" s="34"/>
+      <c r="O36" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P36" s="22"/>
+      <c r="P36" s="33"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A37" s="20">
+      <c r="A37" s="34">
         <v>70191</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="21"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="4">
         <v>4</v>
       </c>
@@ -5297,28 +5538,28 @@
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="34">
         <v>4</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="22" t="s">
+      <c r="N37" s="34"/>
+      <c r="O37" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P37" s="22"/>
+      <c r="P37" s="33"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A38" s="20">
+      <c r="A38" s="34">
         <v>70261</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="21"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="4">
         <v>3</v>
       </c>
@@ -5340,28 +5581,28 @@
       <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="M38" s="20">
-        <v>2</v>
-      </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="22" t="s">
+      <c r="M38" s="34">
+        <v>2</v>
+      </c>
+      <c r="N38" s="34"/>
+      <c r="O38" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="P38" s="22"/>
+      <c r="P38" s="33"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A39" s="20">
+      <c r="A39" s="34">
         <v>70808</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="21"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="4">
         <v>7</v>
       </c>
@@ -5383,28 +5624,28 @@
       <c r="L39" s="4">
         <v>0</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="34">
         <v>7</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="22" t="s">
+      <c r="N39" s="34"/>
+      <c r="O39" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P39" s="22"/>
+      <c r="P39" s="33"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A40" s="20">
+      <c r="A40" s="34">
         <v>70810</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="21"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="4">
         <v>24</v>
       </c>
@@ -5426,28 +5667,28 @@
       <c r="L40" s="4">
         <v>2</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="34">
         <v>22</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="22" t="s">
+      <c r="N40" s="34"/>
+      <c r="O40" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="22"/>
+      <c r="P40" s="33"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A41" s="20">
+      <c r="A41" s="34">
         <v>70816</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="21"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="4">
         <v>10</v>
       </c>
@@ -5469,28 +5710,28 @@
       <c r="L41" s="4">
         <v>1</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="34">
         <v>7</v>
       </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="22" t="s">
+      <c r="N41" s="34"/>
+      <c r="O41" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="P41" s="22"/>
+      <c r="P41" s="33"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A42" s="20">
+      <c r="A42" s="34">
         <v>70847</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="21"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="4">
         <v>12</v>
       </c>
@@ -5512,28 +5753,28 @@
       <c r="L42" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="34">
         <v>11</v>
       </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="22" t="s">
+      <c r="N42" s="34"/>
+      <c r="O42" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P42" s="22"/>
+      <c r="P42" s="33"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="8.85" customHeight="1">
-      <c r="A43" s="20">
+      <c r="A43" s="34">
         <v>70970</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="21"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="4">
         <v>10</v>
       </c>
@@ -5555,28 +5796,28 @@
       <c r="L43" s="4">
         <v>1</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="34">
         <v>8</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="22" t="s">
+      <c r="N43" s="34"/>
+      <c r="O43" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="P43" s="22"/>
+      <c r="P43" s="33"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="20">
+      <c r="A44" s="34">
         <v>71088</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="21"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="4">
         <v>10</v>
       </c>
@@ -5598,28 +5839,28 @@
       <c r="L44" s="4">
         <v>0</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="34">
         <v>7</v>
       </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="22" t="s">
+      <c r="N44" s="34"/>
+      <c r="O44" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="22"/>
+      <c r="P44" s="33"/>
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A45" s="20">
+      <c r="A45" s="34">
         <v>71158</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="4">
         <v>2</v>
       </c>
@@ -5641,28 +5882,28 @@
       <c r="L45" s="4">
         <v>0</v>
       </c>
-      <c r="M45" s="20">
-        <v>2</v>
-      </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="22" t="s">
+      <c r="M45" s="34">
+        <v>2</v>
+      </c>
+      <c r="N45" s="34"/>
+      <c r="O45" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P45" s="22"/>
+      <c r="P45" s="33"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A46" s="20">
+      <c r="A46" s="34">
         <v>71159</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="21"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="4">
         <v>4</v>
       </c>
@@ -5684,28 +5925,28 @@
       <c r="L46" s="4">
         <v>0</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="34">
         <v>4</v>
       </c>
-      <c r="N46" s="20"/>
-      <c r="O46" s="22" t="s">
+      <c r="N46" s="34"/>
+      <c r="O46" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P46" s="22"/>
+      <c r="P46" s="33"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A47" s="20">
+      <c r="A47" s="34">
         <v>71165</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="4">
         <v>28</v>
       </c>
@@ -5727,28 +5968,28 @@
       <c r="L47" s="4">
         <v>0</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="34">
         <v>28</v>
       </c>
-      <c r="N47" s="20"/>
-      <c r="O47" s="22" t="s">
+      <c r="N47" s="34"/>
+      <c r="O47" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="22"/>
+      <c r="P47" s="33"/>
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A48" s="20">
+      <c r="A48" s="34">
         <v>71166</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="21"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="4">
         <v>12</v>
       </c>
@@ -5770,28 +6011,28 @@
       <c r="L48" s="4">
         <v>0</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="34">
         <v>12</v>
       </c>
-      <c r="N48" s="20"/>
-      <c r="O48" s="22" t="s">
+      <c r="N48" s="34"/>
+      <c r="O48" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P48" s="22"/>
+      <c r="P48" s="33"/>
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A49" s="20">
+      <c r="A49" s="34">
         <v>71168</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="4">
         <v>12</v>
       </c>
@@ -5813,28 +6054,28 @@
       <c r="L49" s="4">
         <v>1</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="34">
         <v>11</v>
       </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="22" t="s">
+      <c r="N49" s="34"/>
+      <c r="O49" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P49" s="22"/>
+      <c r="P49" s="33"/>
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A50" s="20">
+      <c r="A50" s="34">
         <v>71180</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="21"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="4">
         <v>12</v>
       </c>
@@ -5856,28 +6097,28 @@
       <c r="L50" s="4">
         <v>0</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="34">
         <v>10</v>
       </c>
-      <c r="N50" s="20"/>
-      <c r="O50" s="22" t="s">
+      <c r="N50" s="34"/>
+      <c r="O50" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="P50" s="22"/>
+      <c r="P50" s="33"/>
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A51" s="20">
+      <c r="A51" s="34">
         <v>71181</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="21"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="4">
         <v>10</v>
       </c>
@@ -5899,28 +6140,28 @@
       <c r="L51" s="4">
         <v>0</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="34">
         <v>7</v>
       </c>
-      <c r="N51" s="20"/>
-      <c r="O51" s="22" t="s">
+      <c r="N51" s="34"/>
+      <c r="O51" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="P51" s="22"/>
+      <c r="P51" s="33"/>
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A52" s="20">
+      <c r="A52" s="34">
         <v>71237</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="21"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="4">
         <v>6</v>
       </c>
@@ -5942,28 +6183,28 @@
       <c r="L52" s="4">
         <v>0</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="34">
         <v>5</v>
       </c>
-      <c r="N52" s="20"/>
-      <c r="O52" s="22" t="s">
+      <c r="N52" s="34"/>
+      <c r="O52" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P52" s="22"/>
+      <c r="P52" s="33"/>
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A53" s="20">
+      <c r="A53" s="34">
         <v>71238</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="21"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="4">
         <v>5</v>
       </c>
@@ -5985,28 +6226,28 @@
       <c r="L53" s="4">
         <v>0</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="34">
         <v>4</v>
       </c>
-      <c r="N53" s="20"/>
-      <c r="O53" s="22" t="s">
+      <c r="N53" s="34"/>
+      <c r="O53" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P53" s="22"/>
+      <c r="P53" s="33"/>
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A54" s="20">
+      <c r="A54" s="34">
         <v>71306</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="21"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="4">
         <v>1</v>
       </c>
@@ -6028,28 +6269,28 @@
       <c r="L54" s="4">
         <v>0</v>
       </c>
-      <c r="M54" s="20">
-        <v>1</v>
-      </c>
-      <c r="N54" s="20"/>
-      <c r="O54" s="22" t="s">
+      <c r="M54" s="34">
+        <v>1</v>
+      </c>
+      <c r="N54" s="34"/>
+      <c r="O54" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P54" s="22"/>
+      <c r="P54" s="33"/>
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A55" s="20">
+      <c r="A55" s="34">
         <v>71327</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="21"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="4">
         <v>0</v>
       </c>
@@ -6071,28 +6312,28 @@
       <c r="L55" s="4">
         <v>0</v>
       </c>
-      <c r="M55" s="20">
-        <v>0</v>
-      </c>
-      <c r="N55" s="20"/>
-      <c r="O55" s="22" t="s">
+      <c r="M55" s="34">
+        <v>0</v>
+      </c>
+      <c r="N55" s="34"/>
+      <c r="O55" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P55" s="22"/>
+      <c r="P55" s="33"/>
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A56" s="20">
+      <c r="A56" s="34">
         <v>71328</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="21"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="4">
         <v>4</v>
       </c>
@@ -6114,28 +6355,28 @@
       <c r="L56" s="4">
         <v>0</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="34">
         <v>4</v>
       </c>
-      <c r="N56" s="20"/>
-      <c r="O56" s="22" t="s">
+      <c r="N56" s="34"/>
+      <c r="O56" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P56" s="22"/>
+      <c r="P56" s="33"/>
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A57" s="20">
+      <c r="A57" s="34">
         <v>71350</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="21"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="4">
         <v>2</v>
       </c>
@@ -6157,28 +6398,28 @@
       <c r="L57" s="4">
         <v>0</v>
       </c>
-      <c r="M57" s="20">
-        <v>0</v>
-      </c>
-      <c r="N57" s="20"/>
-      <c r="O57" s="22" t="s">
+      <c r="M57" s="34">
+        <v>0</v>
+      </c>
+      <c r="N57" s="34"/>
+      <c r="O57" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="P57" s="22"/>
+      <c r="P57" s="33"/>
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A58" s="20">
+      <c r="A58" s="34">
         <v>71351</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="4">
         <v>3</v>
       </c>
@@ -6200,28 +6441,28 @@
       <c r="L58" s="4">
         <v>0</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="34">
         <v>3</v>
       </c>
-      <c r="N58" s="20"/>
-      <c r="O58" s="22" t="s">
+      <c r="N58" s="34"/>
+      <c r="O58" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P58" s="22"/>
+      <c r="P58" s="33"/>
       <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A59" s="20">
+      <c r="A59" s="34">
         <v>71396</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="21"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="4">
         <v>3</v>
       </c>
@@ -6243,28 +6484,28 @@
       <c r="L59" s="4">
         <v>0</v>
       </c>
-      <c r="M59" s="20">
-        <v>2</v>
-      </c>
-      <c r="N59" s="20"/>
-      <c r="O59" s="22" t="s">
+      <c r="M59" s="34">
+        <v>2</v>
+      </c>
+      <c r="N59" s="34"/>
+      <c r="O59" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="P59" s="22"/>
+      <c r="P59" s="33"/>
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A60" s="20">
+      <c r="A60" s="34">
         <v>71431</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="23"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="4">
         <v>2</v>
       </c>
@@ -6286,28 +6527,28 @@
       <c r="L60" s="4">
         <v>0</v>
       </c>
-      <c r="M60" s="20">
-        <v>2</v>
-      </c>
-      <c r="N60" s="20"/>
-      <c r="O60" s="22" t="s">
+      <c r="M60" s="34">
+        <v>2</v>
+      </c>
+      <c r="N60" s="34"/>
+      <c r="O60" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P60" s="22"/>
+      <c r="P60" s="33"/>
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A61" s="20">
+      <c r="A61" s="34">
         <v>71432</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="21"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="4">
         <v>1</v>
       </c>
@@ -6329,28 +6570,28 @@
       <c r="L61" s="4">
         <v>0</v>
       </c>
-      <c r="M61" s="20">
-        <v>1</v>
-      </c>
-      <c r="N61" s="20"/>
-      <c r="O61" s="22" t="s">
+      <c r="M61" s="34">
+        <v>1</v>
+      </c>
+      <c r="N61" s="34"/>
+      <c r="O61" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P61" s="22"/>
+      <c r="P61" s="33"/>
       <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A62" s="20">
+      <c r="A62" s="34">
         <v>71433</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="21"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="4">
         <v>2</v>
       </c>
@@ -6372,28 +6613,28 @@
       <c r="L62" s="4">
         <v>0</v>
       </c>
-      <c r="M62" s="20">
-        <v>2</v>
-      </c>
-      <c r="N62" s="20"/>
-      <c r="O62" s="22" t="s">
+      <c r="M62" s="34">
+        <v>2</v>
+      </c>
+      <c r="N62" s="34"/>
+      <c r="O62" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="22"/>
+      <c r="P62" s="33"/>
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A63" s="20">
+      <c r="A63" s="34">
         <v>71452</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E63" s="21"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="4">
         <v>7</v>
       </c>
@@ -6415,24 +6656,24 @@
       <c r="L63" s="4">
         <v>0</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="34">
         <v>7</v>
       </c>
-      <c r="N63" s="20"/>
-      <c r="O63" s="22" t="s">
+      <c r="N63" s="34"/>
+      <c r="O63" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P63" s="22"/>
+      <c r="P63" s="33"/>
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
       <c r="F64" s="10">
         <v>255</v>
       </c>
@@ -6454,22 +6695,22 @@
       <c r="L64" s="10">
         <v>7</v>
       </c>
-      <c r="M64" s="32">
+      <c r="M64" s="44">
         <v>228</v>
       </c>
-      <c r="N64" s="32"/>
-      <c r="O64" s="33" t="s">
+      <c r="N64" s="44"/>
+      <c r="O64" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="P64" s="33"/>
+      <c r="P64" s="49"/>
       <c r="Q64" s="1"/>
     </row>
     <row r="65" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -6477,20 +6718,20 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
       <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="1:17" ht="9.6" customHeight="1">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="16">
         <v>635</v>
       </c>
@@ -6512,14 +6753,14 @@
       <c r="L66" s="16">
         <v>34</v>
       </c>
-      <c r="M66" s="29">
+      <c r="M66" s="51">
         <v>567</v>
       </c>
-      <c r="N66" s="29"/>
-      <c r="O66" s="30" t="s">
+      <c r="N66" s="51"/>
+      <c r="O66" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="P66" s="30"/>
+      <c r="P66" s="52"/>
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17" ht="10.5" customHeight="1">
@@ -6540,13 +6781,262 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:17" ht="8.4499999999999993" customHeight="1">
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="31"/>
+      <c r="D68" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="261">
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="M2:N2"/>
@@ -6559,255 +7049,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="C68:D68"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/2023_prog_eval.xlsx
+++ b/2023_prog_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98536C8-6970-4F88-A9E0-6664189E9195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F0ECF-EEC2-4EEF-803A-9F07DF12A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2235" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,13 +415,13 @@
     <t>Nursing &amp; Health Sciences</t>
   </si>
   <si>
-    <t>AMEC</t>
-  </si>
-  <si>
     <t>Workforce Development</t>
   </si>
   <si>
     <t>Arts &amp; Sciences</t>
+  </si>
+  <si>
+    <t>Advanced Manufacturing &amp; Engineering Technology</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1581,7 +1581,7 @@
         <v>34</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="9.9499999999999993" customHeight="1">
@@ -1619,7 +1619,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="9.9499999999999993" customHeight="1">
@@ -1657,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="9.9499999999999993" customHeight="1">
@@ -1695,7 +1695,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="9.9499999999999993" customHeight="1">
@@ -1771,7 +1771,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="9.9499999999999993" customHeight="1">
@@ -1885,7 +1885,7 @@
         <v>53</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="9.9499999999999993" customHeight="1">
@@ -1923,7 +1923,7 @@
         <v>56</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="10.35" customHeight="1">
@@ -1999,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="9.6" customHeight="1">
@@ -2037,7 +2037,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="9.6" customHeight="1">
@@ -2075,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="9.6" customHeight="1">
@@ -2151,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="9.6" customHeight="1">
@@ -2303,7 +2303,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="9.6" customHeight="1">
@@ -2417,7 +2417,7 @@
         <v>15</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="9.6" customHeight="1">
@@ -2455,7 +2455,7 @@
         <v>56</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="9.6" customHeight="1">
@@ -2569,7 +2569,7 @@
         <v>84</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="9.9499999999999993" customHeight="1">
@@ -2645,7 +2645,7 @@
         <v>15</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="9.6" customHeight="1">
@@ -2683,7 +2683,7 @@
         <v>15</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="9.6" customHeight="1">
@@ -2721,7 +2721,7 @@
         <v>15</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="9.6" customHeight="1">
@@ -2759,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="9.6" customHeight="1">
@@ -2797,7 +2797,7 @@
         <v>56</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="9.6" customHeight="1">
@@ -2911,7 +2911,7 @@
         <v>15</v>
       </c>
       <c r="L45" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="9.6" customHeight="1">
@@ -2987,7 +2987,7 @@
         <v>15</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="9.6" customHeight="1">
